--- a/Path condition.xlsx
+++ b/Path condition.xlsx
@@ -22,7 +22,7 @@
     <t>Unique crash inputs found by the Micro Fuzzing</t>
   </si>
   <si>
-    <t>Constrain count in execution tree with crashes</t>
+    <t>Constrain count for all crash inputs</t>
   </si>
   <si>
     <t>Constrain count for one crash input on average</t>
@@ -79,7 +79,7 @@
     </font>
     <font>
       <b/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -106,7 +106,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
